--- a/Test Design Specifications/Search_Users_Test_Design_Specifications .xlsx
+++ b/Test Design Specifications/Search_Users_Test_Design_Specifications .xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="102">
   <si>
     <t xml:space="preserve"> Test Design Specification Identifier</t>
   </si>
@@ -330,6 +330,9 @@
   <si>
     <t>no mathch-no results</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -472,11 +475,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -486,18 +495,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32:H35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -824,11 +827,11 @@
       <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="32" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="35" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="26"/>
@@ -850,7 +853,7 @@
       <c r="AB1" s="13"/>
     </row>
     <row r="2" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="26"/>
@@ -866,7 +869,7 @@
       <c r="J2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="25"/>
+      <c r="K2" s="27"/>
       <c r="L2" s="26"/>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -906,13 +909,13 @@
       <c r="H3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>65</v>
+      <c r="I3" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="28" t="s">
         <v>66</v>
       </c>
       <c r="L3" s="26"/>
@@ -934,7 +937,7 @@
       <c r="AB3" s="16"/>
     </row>
     <row r="4" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="26"/>
@@ -946,7 +949,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="25"/>
+      <c r="K4" s="27"/>
       <c r="L4" s="26"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
@@ -986,9 +989,11 @@
       <c r="H5" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="J5" s="12"/>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="28" t="s">
         <v>81</v>
       </c>
       <c r="L5" s="26"/>
@@ -1034,8 +1039,8 @@
         <v>82</v>
       </c>
       <c r="J6" s="12"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -1078,7 +1083,7 @@
         <v>82</v>
       </c>
       <c r="J7" s="12"/>
-      <c r="K7" s="27"/>
+      <c r="K7" s="28"/>
       <c r="L7" s="26"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
@@ -1122,7 +1127,7 @@
         <v>82</v>
       </c>
       <c r="J8" s="12"/>
-      <c r="K8" s="25"/>
+      <c r="K8" s="27"/>
       <c r="L8" s="26"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
@@ -1166,7 +1171,7 @@
         <v>82</v>
       </c>
       <c r="J9" s="12"/>
-      <c r="K9" s="25"/>
+      <c r="K9" s="27"/>
       <c r="L9" s="26"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
@@ -1206,9 +1211,11 @@
       <c r="H10" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="J10" s="12"/>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="28" t="s">
         <v>84</v>
       </c>
       <c r="L10" s="26"/>
@@ -1254,10 +1261,10 @@
       <c r="J11" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="L11" s="29"/>
+      <c r="L11" s="31"/>
       <c r="M11" s="22" t="s">
         <v>99</v>
       </c>
@@ -1304,10 +1311,10 @@
       <c r="J12" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="29"/>
+      <c r="L12" s="31"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
@@ -1348,10 +1355,10 @@
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="L13" s="29"/>
+      <c r="L13" s="31"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
@@ -1392,10 +1399,10 @@
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="20"/>
-      <c r="K14" s="28" t="s">
+      <c r="K14" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="L14" s="29"/>
+      <c r="L14" s="31"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
@@ -1436,8 +1443,8 @@
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="29"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="31"/>
       <c r="M15" s="24"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
@@ -1478,10 +1485,10 @@
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="28" t="s">
+      <c r="K16" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="L16" s="29"/>
+      <c r="L16" s="31"/>
       <c r="M16" s="24"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
@@ -1524,10 +1531,10 @@
       <c r="J17" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="28" t="s">
+      <c r="K17" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="29"/>
+      <c r="L17" s="31"/>
       <c r="M17" s="24"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
@@ -1570,10 +1577,10 @@
       <c r="J18" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="28" t="s">
+      <c r="K18" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="30"/>
+      <c r="L18" s="32"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
@@ -1616,10 +1623,10 @@
       <c r="J19" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="28" t="s">
+      <c r="K19" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="L19" s="30"/>
+      <c r="L19" s="32"/>
       <c r="M19" s="24"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
@@ -1662,10 +1669,10 @@
       <c r="J20" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K20" s="28" t="s">
+      <c r="K20" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="L20" s="30"/>
+      <c r="L20" s="32"/>
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
@@ -1710,10 +1717,10 @@
       <c r="J21" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="28" t="s">
+      <c r="K21" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="L21" s="29"/>
+      <c r="L21" s="31"/>
       <c r="M21" s="24"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
@@ -1758,10 +1765,10 @@
       <c r="J22" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K22" s="28" t="s">
+      <c r="K22" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="L22" s="28"/>
+      <c r="L22" s="30"/>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
@@ -1780,7 +1787,7 @@
       <c r="AB22" s="24"/>
     </row>
     <row r="23" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="26"/>
@@ -1792,7 +1799,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="25"/>
+      <c r="K23" s="27"/>
       <c r="L23" s="26"/>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
@@ -1836,7 +1843,7 @@
         <v>82</v>
       </c>
       <c r="J24" s="12"/>
-      <c r="K24" s="25"/>
+      <c r="K24" s="27"/>
       <c r="L24" s="26"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
@@ -1882,7 +1889,7 @@
       <c r="J25" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="28" t="s">
         <v>67</v>
       </c>
       <c r="L25" s="26"/>
@@ -2105,7 +2112,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="31"/>
+      <c r="H32" s="29"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="16"/>
@@ -2135,7 +2142,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
-      <c r="H33" s="31"/>
+      <c r="H33" s="29"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="16"/>
@@ -2165,7 +2172,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="31"/>
+      <c r="H34" s="29"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="16"/>
@@ -2195,7 +2202,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
-      <c r="H35" s="31"/>
+      <c r="H35" s="29"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="16"/>
@@ -31589,28 +31596,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
@@ -31619,6 +31604,28 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="H32:H35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -31671,11 +31678,11 @@
       <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="32" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="35" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="26"/>
@@ -31697,7 +31704,7 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="26"/>
@@ -31713,7 +31720,7 @@
       <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="25"/>
+      <c r="K2" s="27"/>
       <c r="L2" s="26"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -31759,7 +31766,7 @@
       <c r="J3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="28" t="s">
         <v>66</v>
       </c>
       <c r="L3" s="26"/>
@@ -31781,7 +31788,7 @@
       <c r="AB3" s="3"/>
     </row>
     <row r="4" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="26"/>
@@ -31793,7 +31800,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="25"/>
+      <c r="K4" s="27"/>
       <c r="L4" s="26"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -31837,7 +31844,7 @@
         <v>91</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="28" t="s">
         <v>81</v>
       </c>
       <c r="L5" s="26"/>
@@ -31883,8 +31890,8 @@
         <v>82</v>
       </c>
       <c r="J6" s="7"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -31927,7 +31934,7 @@
         <v>82</v>
       </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="27"/>
+      <c r="K7" s="28"/>
       <c r="L7" s="26"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -31971,7 +31978,7 @@
         <v>82</v>
       </c>
       <c r="J8" s="7"/>
-      <c r="K8" s="25"/>
+      <c r="K8" s="27"/>
       <c r="L8" s="26"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -32015,7 +32022,7 @@
         <v>82</v>
       </c>
       <c r="J9" s="7"/>
-      <c r="K9" s="25"/>
+      <c r="K9" s="27"/>
       <c r="L9" s="26"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -32059,7 +32066,7 @@
         <v>65</v>
       </c>
       <c r="J10" s="7"/>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="28" t="s">
         <v>84</v>
       </c>
       <c r="L10" s="26"/>
@@ -32107,10 +32114,10 @@
       <c r="J11" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="L11" s="29"/>
+      <c r="L11" s="31"/>
       <c r="M11" s="19" t="s">
         <v>99</v>
       </c>
@@ -32159,10 +32166,10 @@
       <c r="J12" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="29"/>
+      <c r="L12" s="31"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
@@ -32205,10 +32212,10 @@
         <v>65</v>
       </c>
       <c r="J13" s="20"/>
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="L13" s="29"/>
+      <c r="L13" s="31"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
@@ -32251,10 +32258,10 @@
         <v>65</v>
       </c>
       <c r="J14" s="20"/>
-      <c r="K14" s="28" t="s">
+      <c r="K14" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="L14" s="29"/>
+      <c r="L14" s="31"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
@@ -32297,8 +32304,8 @@
         <v>65</v>
       </c>
       <c r="J15" s="20"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="29"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="31"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
@@ -32341,10 +32348,10 @@
         <v>65</v>
       </c>
       <c r="J16" s="20"/>
-      <c r="K16" s="28" t="s">
+      <c r="K16" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="L16" s="29"/>
+      <c r="L16" s="31"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
@@ -32389,10 +32396,10 @@
       <c r="J17" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="28" t="s">
+      <c r="K17" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="29"/>
+      <c r="L17" s="31"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
@@ -32437,10 +32444,10 @@
       <c r="J18" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="28" t="s">
+      <c r="K18" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="30"/>
+      <c r="L18" s="32"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
@@ -32485,10 +32492,10 @@
       <c r="J19" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="28" t="s">
+      <c r="K19" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="L19" s="30"/>
+      <c r="L19" s="32"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
@@ -32533,10 +32540,10 @@
       <c r="J20" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K20" s="28" t="s">
+      <c r="K20" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="L20" s="30"/>
+      <c r="L20" s="32"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
@@ -32581,10 +32588,10 @@
       <c r="J21" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="28" t="s">
+      <c r="K21" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="L21" s="29"/>
+      <c r="L21" s="31"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
@@ -32629,10 +32636,10 @@
       <c r="J22" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K22" s="28" t="s">
+      <c r="K22" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="L22" s="28"/>
+      <c r="L22" s="30"/>
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
@@ -32651,7 +32658,7 @@
       <c r="AB22" s="18"/>
     </row>
     <row r="23" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="26"/>
@@ -32663,7 +32670,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="25"/>
+      <c r="K23" s="27"/>
       <c r="L23" s="26"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -32707,7 +32714,7 @@
         <v>82</v>
       </c>
       <c r="J24" s="7"/>
-      <c r="K24" s="25"/>
+      <c r="K24" s="27"/>
       <c r="L24" s="26"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -32753,7 +32760,7 @@
       <c r="J25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="28" t="s">
         <v>67</v>
       </c>
       <c r="L25" s="26"/>
@@ -32976,7 +32983,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="31"/>
+      <c r="H32" s="29"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="3"/>
@@ -33006,7 +33013,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="31"/>
+      <c r="H33" s="29"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="3"/>
@@ -33036,7 +33043,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="31"/>
+      <c r="H34" s="29"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="3"/>
@@ -33066,7 +33073,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="31"/>
+      <c r="H35" s="29"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="3"/>
@@ -62460,6 +62467,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="H32:H35"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="I1:J1"/>
@@ -62476,20 +62497,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="A23:G23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/Test Design Specifications/Search_Users_Test_Design_Specifications .xlsx
+++ b/Test Design Specifications/Search_Users_Test_Design_Specifications .xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="106">
   <si>
     <t xml:space="preserve"> Test Design Specification Identifier</t>
   </si>
@@ -333,6 +333,18 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>fail for lastname</t>
+  </si>
+  <si>
+    <t>fail bc of name</t>
+  </si>
+  <si>
+    <t>if name == lastname (or part of it)</t>
+  </si>
+  <si>
+    <t>retested</t>
+  </si>
 </sst>
 </file>
 
@@ -475,31 +487,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -784,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -827,11 +839,11 @@
       <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="35" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="29" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="26"/>
@@ -853,7 +865,7 @@
       <c r="AB1" s="13"/>
     </row>
     <row r="2" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="26"/>
@@ -869,7 +881,7 @@
       <c r="J2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="27"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="26"/>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -907,7 +919,7 @@
         <v>51</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>82</v>
@@ -915,9 +927,7 @@
       <c r="J3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="28" t="s">
-        <v>66</v>
-      </c>
+      <c r="K3" s="25"/>
       <c r="L3" s="26"/>
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
@@ -937,7 +947,7 @@
       <c r="AB3" s="16"/>
     </row>
     <row r="4" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="26"/>
@@ -949,7 +959,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="27"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="26"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
@@ -993,7 +1003,7 @@
         <v>82</v>
       </c>
       <c r="J5" s="12"/>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="25" t="s">
         <v>81</v>
       </c>
       <c r="L5" s="26"/>
@@ -1039,8 +1049,10 @@
         <v>82</v>
       </c>
       <c r="J6" s="12"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
+      <c r="K6" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" s="32"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -1083,7 +1095,7 @@
         <v>82</v>
       </c>
       <c r="J7" s="12"/>
-      <c r="K7" s="28"/>
+      <c r="K7" s="25"/>
       <c r="L7" s="26"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
@@ -1127,7 +1139,7 @@
         <v>82</v>
       </c>
       <c r="J8" s="12"/>
-      <c r="K8" s="27"/>
+      <c r="K8" s="31"/>
       <c r="L8" s="26"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
@@ -1171,7 +1183,7 @@
         <v>82</v>
       </c>
       <c r="J9" s="12"/>
-      <c r="K9" s="27"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="26"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
@@ -1212,11 +1224,11 @@
         <v>90</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="J10" s="12"/>
-      <c r="K10" s="28" t="s">
-        <v>84</v>
+      <c r="K10" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="L10" s="26"/>
       <c r="M10" s="16"/>
@@ -1261,10 +1273,10 @@
       <c r="J11" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="L11" s="31"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="22" t="s">
         <v>99</v>
       </c>
@@ -1307,14 +1319,16 @@
       <c r="H12" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="J12" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K12" s="30" t="s">
-        <v>86</v>
+      <c r="K12" s="33" t="s">
+        <v>104</v>
       </c>
-      <c r="L12" s="31"/>
+      <c r="L12" s="34"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
@@ -1355,10 +1369,10 @@
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="30" t="s">
+      <c r="K13" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="L13" s="31"/>
+      <c r="L13" s="34"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
@@ -1399,10 +1413,10 @@
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="20"/>
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="L14" s="31"/>
+      <c r="L14" s="34"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
@@ -1443,8 +1457,8 @@
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="31"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="34"/>
       <c r="M15" s="24"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
@@ -1483,12 +1497,14 @@
       <c r="H16" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="J16" s="20"/>
-      <c r="K16" s="30" t="s">
-        <v>94</v>
+      <c r="K16" s="33" t="s">
+        <v>104</v>
       </c>
-      <c r="L16" s="31"/>
+      <c r="L16" s="34"/>
       <c r="M16" s="24"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
@@ -1527,14 +1543,16 @@
       <c r="H17" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I17" s="21"/>
+      <c r="I17" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="J17" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="30" t="s">
-        <v>86</v>
+      <c r="K17" s="33" t="s">
+        <v>104</v>
       </c>
-      <c r="L17" s="31"/>
+      <c r="L17" s="34"/>
       <c r="M17" s="24"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
@@ -1577,10 +1595,8 @@
       <c r="J18" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L18" s="32"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="35"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
@@ -1617,16 +1633,16 @@
         <v>97</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
-      <c r="I19" s="21"/>
+      <c r="I19" s="21" t="s">
+        <v>82</v>
+      </c>
       <c r="J19" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L19" s="32"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="35"/>
       <c r="M19" s="24"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
@@ -1663,16 +1679,16 @@
         <v>80</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
-      <c r="I20" s="21"/>
+      <c r="I20" s="21" t="s">
+        <v>82</v>
+      </c>
       <c r="J20" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K20" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L20" s="32"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="35"/>
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
@@ -1709,7 +1725,7 @@
         <v>44</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="I21" s="21" t="s">
         <v>65</v>
@@ -1717,10 +1733,10 @@
       <c r="J21" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="30" t="s">
+      <c r="K21" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L21" s="31"/>
+      <c r="L21" s="34"/>
       <c r="M21" s="24"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
@@ -1757,7 +1773,7 @@
         <v>44</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="I22" s="21" t="s">
         <v>65</v>
@@ -1765,10 +1781,10 @@
       <c r="J22" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K22" s="30" t="s">
+      <c r="K22" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L22" s="30"/>
+      <c r="L22" s="33"/>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
@@ -1787,7 +1803,7 @@
       <c r="AB22" s="24"/>
     </row>
     <row r="23" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="30" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="26"/>
@@ -1799,7 +1815,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="27"/>
+      <c r="K23" s="31"/>
       <c r="L23" s="26"/>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
@@ -1837,13 +1853,13 @@
         <v>49</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>82</v>
       </c>
       <c r="J24" s="12"/>
-      <c r="K24" s="27"/>
+      <c r="K24" s="31"/>
       <c r="L24" s="26"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
@@ -1881,7 +1897,7 @@
         <v>98</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>65</v>
@@ -1889,7 +1905,7 @@
       <c r="J25" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="K25" s="28" t="s">
+      <c r="K25" s="25" t="s">
         <v>67</v>
       </c>
       <c r="L25" s="26"/>
@@ -2112,7 +2128,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="27"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="16"/>
@@ -2142,7 +2158,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
-      <c r="H33" s="29"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="16"/>
@@ -2172,7 +2188,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="29"/>
+      <c r="H34" s="27"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="16"/>
@@ -2202,7 +2218,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
-      <c r="H35" s="29"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="16"/>
@@ -31596,6 +31612,23 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
@@ -31609,23 +31642,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="H32:H35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -31678,11 +31694,11 @@
       <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="35" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="29" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="26"/>
@@ -31704,7 +31720,7 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="26"/>
@@ -31720,7 +31736,7 @@
       <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="27"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="26"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -31766,7 +31782,7 @@
       <c r="J3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="25" t="s">
         <v>66</v>
       </c>
       <c r="L3" s="26"/>
@@ -31788,7 +31804,7 @@
       <c r="AB3" s="3"/>
     </row>
     <row r="4" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="26"/>
@@ -31800,7 +31816,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="27"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="26"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -31844,7 +31860,7 @@
         <v>91</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="25" t="s">
         <v>81</v>
       </c>
       <c r="L5" s="26"/>
@@ -31890,8 +31906,8 @@
         <v>82</v>
       </c>
       <c r="J6" s="7"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -31934,7 +31950,7 @@
         <v>82</v>
       </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="28"/>
+      <c r="K7" s="25"/>
       <c r="L7" s="26"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -31978,7 +31994,7 @@
         <v>82</v>
       </c>
       <c r="J8" s="7"/>
-      <c r="K8" s="27"/>
+      <c r="K8" s="31"/>
       <c r="L8" s="26"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -32022,7 +32038,7 @@
         <v>82</v>
       </c>
       <c r="J9" s="7"/>
-      <c r="K9" s="27"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="26"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -32066,7 +32082,7 @@
         <v>65</v>
       </c>
       <c r="J10" s="7"/>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="25" t="s">
         <v>84</v>
       </c>
       <c r="L10" s="26"/>
@@ -32114,10 +32130,10 @@
       <c r="J11" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="L11" s="31"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="19" t="s">
         <v>99</v>
       </c>
@@ -32166,10 +32182,10 @@
       <c r="J12" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="31"/>
+      <c r="L12" s="34"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
@@ -32212,10 +32228,10 @@
         <v>65</v>
       </c>
       <c r="J13" s="20"/>
-      <c r="K13" s="30" t="s">
+      <c r="K13" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="L13" s="31"/>
+      <c r="L13" s="34"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
@@ -32258,10 +32274,10 @@
         <v>65</v>
       </c>
       <c r="J14" s="20"/>
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="L14" s="31"/>
+      <c r="L14" s="34"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
@@ -32304,8 +32320,8 @@
         <v>65</v>
       </c>
       <c r="J15" s="20"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="31"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="34"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
@@ -32348,10 +32364,10 @@
         <v>65</v>
       </c>
       <c r="J16" s="20"/>
-      <c r="K16" s="30" t="s">
+      <c r="K16" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="L16" s="31"/>
+      <c r="L16" s="34"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
@@ -32396,10 +32412,10 @@
       <c r="J17" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="30" t="s">
+      <c r="K17" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="31"/>
+      <c r="L17" s="34"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
@@ -32444,10 +32460,10 @@
       <c r="J18" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="30" t="s">
+      <c r="K18" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="32"/>
+      <c r="L18" s="35"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
@@ -32492,10 +32508,10 @@
       <c r="J19" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="30" t="s">
+      <c r="K19" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="L19" s="32"/>
+      <c r="L19" s="35"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
@@ -32540,10 +32556,10 @@
       <c r="J20" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K20" s="30" t="s">
+      <c r="K20" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="L20" s="32"/>
+      <c r="L20" s="35"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
@@ -32588,10 +32604,10 @@
       <c r="J21" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="30" t="s">
+      <c r="K21" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L21" s="31"/>
+      <c r="L21" s="34"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
@@ -32636,10 +32652,10 @@
       <c r="J22" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K22" s="30" t="s">
+      <c r="K22" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L22" s="30"/>
+      <c r="L22" s="33"/>
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
@@ -32658,7 +32674,7 @@
       <c r="AB22" s="18"/>
     </row>
     <row r="23" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="30" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="26"/>
@@ -32670,7 +32686,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="27"/>
+      <c r="K23" s="31"/>
       <c r="L23" s="26"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -32714,7 +32730,7 @@
         <v>82</v>
       </c>
       <c r="J24" s="7"/>
-      <c r="K24" s="27"/>
+      <c r="K24" s="31"/>
       <c r="L24" s="26"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -32760,7 +32776,7 @@
       <c r="J25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K25" s="28" t="s">
+      <c r="K25" s="25" t="s">
         <v>67</v>
       </c>
       <c r="L25" s="26"/>
@@ -32983,7 +32999,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="27"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="3"/>
@@ -33013,7 +33029,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="29"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="3"/>
@@ -33043,7 +33059,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="29"/>
+      <c r="H34" s="27"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="3"/>
@@ -33073,7 +33089,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="29"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="3"/>
@@ -62467,20 +62483,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
     <mergeCell ref="H32:H35"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="I1:J1"/>
@@ -62497,6 +62499,20 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="A23:G23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/Test Design Specifications/Search_Users_Test_Design_Specifications .xlsx
+++ b/Test Design Specifications/Search_Users_Test_Design_Specifications .xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="110">
   <si>
     <t xml:space="preserve"> Test Design Specification Identifier</t>
   </si>
@@ -334,23 +334,35 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>fail for lastname</t>
-  </si>
-  <si>
     <t>fail bc of name</t>
   </si>
   <si>
-    <t>if name == lastname (or part of it)</t>
+    <t>retested</t>
   </si>
   <si>
-    <t>retested</t>
+    <t xml:space="preserve">name ignored </t>
+  </si>
+  <si>
+    <t>city ignored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fail </t>
+  </si>
+  <si>
+    <t>fail for last name</t>
+  </si>
+  <si>
+    <t>if name == last name (or part of it)</t>
+  </si>
+  <si>
+    <t>no match-no results</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -402,13 +414,26 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -423,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -487,25 +512,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -513,6 +531,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,18 +830,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20:L20"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="14" customWidth="1"/>
     <col min="2" max="2" width="43.7109375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="13" style="14" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="14" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="14" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="49.140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="49.140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="68.5703125" style="14" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="11" customWidth="1"/>
     <col min="9" max="10" width="14.42578125" style="15"/>
@@ -839,11 +873,11 @@
       <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29" t="s">
+      <c r="J1" s="33"/>
+      <c r="K1" s="34" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="26"/>
@@ -865,7 +899,7 @@
       <c r="AB1" s="13"/>
     </row>
     <row r="2" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="26"/>
@@ -881,7 +915,7 @@
       <c r="J2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="31"/>
+      <c r="K2" s="27"/>
       <c r="L2" s="26"/>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -919,7 +953,7 @@
         <v>51</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>82</v>
@@ -927,7 +961,7 @@
       <c r="J3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="25"/>
+      <c r="K3" s="28"/>
       <c r="L3" s="26"/>
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
@@ -947,7 +981,7 @@
       <c r="AB3" s="16"/>
     </row>
     <row r="4" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="26"/>
@@ -959,7 +993,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="31"/>
+      <c r="K4" s="27"/>
       <c r="L4" s="26"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
@@ -996,14 +1030,14 @@
       <c r="G5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>90</v>
+      <c r="H5" s="36" t="s">
+        <v>103</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="10" t="s">
         <v>82</v>
       </c>
       <c r="J5" s="12"/>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="28" t="s">
         <v>81</v>
       </c>
       <c r="L5" s="26"/>
@@ -1049,10 +1083,10 @@
         <v>82</v>
       </c>
       <c r="J6" s="12"/>
-      <c r="K6" s="32" t="s">
-        <v>102</v>
+      <c r="K6" s="38" t="s">
+        <v>107</v>
       </c>
-      <c r="L6" s="32"/>
+      <c r="L6" s="35"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -1095,7 +1129,7 @@
         <v>82</v>
       </c>
       <c r="J7" s="12"/>
-      <c r="K7" s="25"/>
+      <c r="K7" s="28"/>
       <c r="L7" s="26"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
@@ -1139,7 +1173,7 @@
         <v>82</v>
       </c>
       <c r="J8" s="12"/>
-      <c r="K8" s="31"/>
+      <c r="K8" s="27"/>
       <c r="L8" s="26"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
@@ -1183,7 +1217,7 @@
         <v>82</v>
       </c>
       <c r="J9" s="12"/>
-      <c r="K9" s="31"/>
+      <c r="K9" s="27"/>
       <c r="L9" s="26"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
@@ -1220,15 +1254,15 @@
       <c r="G10" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>90</v>
+      <c r="H10" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J10" s="12"/>
-      <c r="K10" s="25" t="s">
-        <v>104</v>
+      <c r="K10" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="L10" s="26"/>
       <c r="M10" s="16"/>
@@ -1266,22 +1300,22 @@
       <c r="G11" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>90</v>
+      <c r="H11" s="36" t="s">
+        <v>103</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="20" t="s">
-        <v>88</v>
+      <c r="I11" s="21" t="s">
+        <v>65</v>
       </c>
-      <c r="K11" s="33" t="s">
-        <v>92</v>
+      <c r="J11" s="20"/>
+      <c r="K11" s="30" t="s">
+        <v>108</v>
       </c>
-      <c r="L11" s="34"/>
+      <c r="L11" s="31"/>
       <c r="M11" s="22" t="s">
         <v>99</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -1316,19 +1350,17 @@
       <c r="G12" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>90</v>
+      <c r="H12" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
-      <c r="J12" s="20" t="s">
-        <v>88</v>
+      <c r="J12" s="20"/>
+      <c r="K12" s="30" t="s">
+        <v>108</v>
       </c>
-      <c r="K12" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="L12" s="34"/>
+      <c r="L12" s="31"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
@@ -1364,15 +1396,17 @@
       <c r="G13" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="20" t="s">
-        <v>90</v>
+      <c r="H13" s="36" t="s">
+        <v>103</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="37" t="s">
+        <v>82</v>
+      </c>
       <c r="J13" s="20"/>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="L13" s="34"/>
+      <c r="L13" s="31"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
@@ -1408,15 +1442,15 @@
       <c r="G14" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="20" t="s">
-        <v>90</v>
+      <c r="H14" s="36" t="s">
+        <v>103</v>
       </c>
-      <c r="I14" s="21"/>
+      <c r="I14" s="37" t="s">
+        <v>82</v>
+      </c>
       <c r="J14" s="20"/>
-      <c r="K14" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="34"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="31"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
@@ -1452,13 +1486,15 @@
       <c r="G15" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="20" t="s">
-        <v>90</v>
+      <c r="H15" s="36" t="s">
+        <v>103</v>
       </c>
-      <c r="I15" s="21"/>
+      <c r="I15" s="37" t="s">
+        <v>82</v>
+      </c>
       <c r="J15" s="20"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="34"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="31"/>
       <c r="M15" s="24"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
@@ -1494,17 +1530,19 @@
       <c r="G16" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="20" t="s">
-        <v>90</v>
+      <c r="H16" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="33" t="s">
+      <c r="J16" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="L16" s="34"/>
+      <c r="K16" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="31"/>
       <c r="M16" s="24"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
@@ -1540,19 +1578,19 @@
       <c r="G17" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="20" t="s">
-        <v>90</v>
+      <c r="H17" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="L17" s="34"/>
+      <c r="K17" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="31"/>
       <c r="M17" s="24"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
@@ -1588,15 +1626,17 @@
       <c r="G18" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="20" t="s">
-        <v>90</v>
+      <c r="H18" s="36" t="s">
+        <v>103</v>
       </c>
-      <c r="I18" s="21"/>
+      <c r="I18" s="21" t="s">
+        <v>65</v>
+      </c>
       <c r="J18" s="20" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
-      <c r="K18" s="33"/>
-      <c r="L18" s="35"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="32"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
@@ -1632,17 +1672,17 @@
       <c r="G19" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="20" t="s">
-        <v>105</v>
+      <c r="H19" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="35"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="32"/>
       <c r="M19" s="24"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
@@ -1678,17 +1718,15 @@
       <c r="G20" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="20" t="s">
-        <v>105</v>
+      <c r="H20" s="36" t="s">
+        <v>103</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="J20" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="K20" s="33"/>
-      <c r="L20" s="35"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="32"/>
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
@@ -1724,19 +1762,17 @@
       <c r="G21" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="20" t="s">
-        <v>105</v>
+      <c r="H21" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="I21" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="J21" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="K21" s="33" t="s">
+      <c r="J21" s="20"/>
+      <c r="K21" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="L21" s="34"/>
+      <c r="L21" s="31"/>
       <c r="M21" s="24"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
@@ -1772,19 +1808,17 @@
       <c r="G22" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="20" t="s">
-        <v>105</v>
+      <c r="H22" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="I22" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="K22" s="33" t="s">
+      <c r="J22" s="20"/>
+      <c r="K22" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="L22" s="33"/>
+      <c r="L22" s="30"/>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
@@ -1803,7 +1837,7 @@
       <c r="AB22" s="24"/>
     </row>
     <row r="23" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="26"/>
@@ -1815,7 +1849,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="31"/>
+      <c r="K23" s="27"/>
       <c r="L23" s="26"/>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
@@ -1852,14 +1886,14 @@
       <c r="G24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>105</v>
+      <c r="H24" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>82</v>
       </c>
       <c r="J24" s="12"/>
-      <c r="K24" s="31"/>
+      <c r="K24" s="27"/>
       <c r="L24" s="26"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
@@ -1896,16 +1930,14 @@
       <c r="G25" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>105</v>
+      <c r="H25" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="K25" s="25" t="s">
+      <c r="J25" s="12"/>
+      <c r="K25" s="28" t="s">
         <v>67</v>
       </c>
       <c r="L25" s="26"/>
@@ -2128,7 +2160,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="27"/>
+      <c r="H32" s="29"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="16"/>
@@ -2158,7 +2190,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
-      <c r="H33" s="27"/>
+      <c r="H33" s="29"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="16"/>
@@ -2188,7 +2220,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="27"/>
+      <c r="H34" s="29"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="16"/>
@@ -2218,7 +2250,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
-      <c r="H35" s="27"/>
+      <c r="H35" s="29"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="16"/>
@@ -31612,23 +31644,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
@@ -31642,6 +31657,23 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="H32:H35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -31694,11 +31726,11 @@
       <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29" t="s">
+      <c r="J1" s="33"/>
+      <c r="K1" s="34" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="26"/>
@@ -31720,7 +31752,7 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="26"/>
@@ -31736,7 +31768,7 @@
       <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="31"/>
+      <c r="K2" s="27"/>
       <c r="L2" s="26"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -31782,7 +31814,7 @@
       <c r="J3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="28" t="s">
         <v>66</v>
       </c>
       <c r="L3" s="26"/>
@@ -31804,7 +31836,7 @@
       <c r="AB3" s="3"/>
     </row>
     <row r="4" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="26"/>
@@ -31816,7 +31848,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="31"/>
+      <c r="K4" s="27"/>
       <c r="L4" s="26"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -31860,7 +31892,7 @@
         <v>91</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="28" t="s">
         <v>81</v>
       </c>
       <c r="L5" s="26"/>
@@ -31906,8 +31938,8 @@
         <v>82</v>
       </c>
       <c r="J6" s="7"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -31950,7 +31982,7 @@
         <v>82</v>
       </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="25"/>
+      <c r="K7" s="28"/>
       <c r="L7" s="26"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -31994,7 +32026,7 @@
         <v>82</v>
       </c>
       <c r="J8" s="7"/>
-      <c r="K8" s="31"/>
+      <c r="K8" s="27"/>
       <c r="L8" s="26"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -32038,7 +32070,7 @@
         <v>82</v>
       </c>
       <c r="J9" s="7"/>
-      <c r="K9" s="31"/>
+      <c r="K9" s="27"/>
       <c r="L9" s="26"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -32082,7 +32114,7 @@
         <v>65</v>
       </c>
       <c r="J10" s="7"/>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="28" t="s">
         <v>84</v>
       </c>
       <c r="L10" s="26"/>
@@ -32130,10 +32162,10 @@
       <c r="J11" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="L11" s="34"/>
+      <c r="L11" s="31"/>
       <c r="M11" s="19" t="s">
         <v>99</v>
       </c>
@@ -32182,10 +32214,10 @@
       <c r="J12" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="34"/>
+      <c r="L12" s="31"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
@@ -32228,10 +32260,10 @@
         <v>65</v>
       </c>
       <c r="J13" s="20"/>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="L13" s="34"/>
+      <c r="L13" s="31"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
@@ -32274,10 +32306,10 @@
         <v>65</v>
       </c>
       <c r="J14" s="20"/>
-      <c r="K14" s="33" t="s">
+      <c r="K14" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="L14" s="34"/>
+      <c r="L14" s="31"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
@@ -32320,8 +32352,8 @@
         <v>65</v>
       </c>
       <c r="J15" s="20"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="34"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="31"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
@@ -32364,10 +32396,10 @@
         <v>65</v>
       </c>
       <c r="J16" s="20"/>
-      <c r="K16" s="33" t="s">
+      <c r="K16" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="L16" s="34"/>
+      <c r="L16" s="31"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
@@ -32412,10 +32444,10 @@
       <c r="J17" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="K17" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="34"/>
+      <c r="L17" s="31"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
@@ -32460,10 +32492,10 @@
       <c r="J18" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="33" t="s">
+      <c r="K18" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="35"/>
+      <c r="L18" s="32"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
@@ -32508,10 +32540,10 @@
       <c r="J19" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="33" t="s">
+      <c r="K19" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="L19" s="35"/>
+      <c r="L19" s="32"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
@@ -32556,10 +32588,10 @@
       <c r="J20" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K20" s="33" t="s">
+      <c r="K20" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="L20" s="35"/>
+      <c r="L20" s="32"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
@@ -32604,10 +32636,10 @@
       <c r="J21" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="K21" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="L21" s="34"/>
+      <c r="L21" s="31"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
@@ -32652,10 +32684,10 @@
       <c r="J22" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K22" s="33" t="s">
+      <c r="K22" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="L22" s="33"/>
+      <c r="L22" s="30"/>
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
@@ -32674,7 +32706,7 @@
       <c r="AB22" s="18"/>
     </row>
     <row r="23" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="26"/>
@@ -32686,7 +32718,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="31"/>
+      <c r="K23" s="27"/>
       <c r="L23" s="26"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -32730,7 +32762,7 @@
         <v>82</v>
       </c>
       <c r="J24" s="7"/>
-      <c r="K24" s="31"/>
+      <c r="K24" s="27"/>
       <c r="L24" s="26"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -32776,7 +32808,7 @@
       <c r="J25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K25" s="25" t="s">
+      <c r="K25" s="28" t="s">
         <v>67</v>
       </c>
       <c r="L25" s="26"/>
@@ -32999,7 +33031,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="27"/>
+      <c r="H32" s="29"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="3"/>
@@ -33029,7 +33061,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="27"/>
+      <c r="H33" s="29"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="3"/>
@@ -33059,7 +33091,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="27"/>
+      <c r="H34" s="29"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="3"/>
@@ -33089,7 +33121,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="27"/>
+      <c r="H35" s="29"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="3"/>
@@ -62483,6 +62515,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="H32:H35"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="I1:J1"/>
@@ -62499,20 +62545,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="A23:G23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/Test Design Specifications/Search_Users_Test_Design_Specifications .xlsx
+++ b/Test Design Specifications/Search_Users_Test_Design_Specifications .xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="110">
   <si>
     <t xml:space="preserve"> Test Design Specification Identifier</t>
   </si>
@@ -349,13 +349,13 @@
     <t xml:space="preserve">fail </t>
   </si>
   <si>
-    <t>fail for last name</t>
-  </si>
-  <si>
     <t>if name == last name (or part of it)</t>
   </si>
   <si>
     <t>no match-no results</t>
+  </si>
+  <si>
+    <t>Negative</t>
   </si>
 </sst>
 </file>
@@ -512,18 +512,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -531,22 +547,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,7 +831,7 @@
   <dimension ref="A1:AB1014"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17:L17"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -876,11 +876,11 @@
       <c r="I1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="26"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
@@ -899,24 +899,24 @@
       <c r="AB1" s="13"/>
     </row>
     <row r="2" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="26"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="28"/>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
@@ -961,8 +961,8 @@
       <c r="J3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="26"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -981,20 +981,20 @@
       <c r="AB3" s="16"/>
     </row>
     <row r="4" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="26"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="28"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
@@ -1030,17 +1030,17 @@
       <c r="G5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="20" t="s">
         <v>103</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>82</v>
       </c>
       <c r="J5" s="12"/>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="L5" s="26"/>
+      <c r="L5" s="28"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
@@ -1077,15 +1077,13 @@
         <v>70</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>82</v>
       </c>
       <c r="J6" s="12"/>
-      <c r="K6" s="38" t="s">
-        <v>107</v>
-      </c>
+      <c r="K6" s="34"/>
       <c r="L6" s="35"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
@@ -1129,8 +1127,8 @@
         <v>82</v>
       </c>
       <c r="J7" s="12"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="26"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
@@ -1173,8 +1171,8 @@
         <v>82</v>
       </c>
       <c r="J8" s="12"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="26"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
@@ -1217,8 +1215,8 @@
         <v>82</v>
       </c>
       <c r="J9" s="12"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="26"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
@@ -1254,17 +1252,17 @@
       <c r="G10" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="25" t="s">
         <v>103</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>102</v>
       </c>
       <c r="J10" s="12"/>
-      <c r="K10" s="28" t="s">
-        <v>108</v>
+      <c r="K10" s="27" t="s">
+        <v>107</v>
       </c>
-      <c r="L10" s="26"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -1300,22 +1298,22 @@
       <c r="G11" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="25" t="s">
         <v>103</v>
       </c>
       <c r="I11" s="21" t="s">
         <v>65</v>
       </c>
       <c r="J11" s="20"/>
-      <c r="K11" s="30" t="s">
-        <v>108</v>
+      <c r="K11" s="36" t="s">
+        <v>107</v>
       </c>
-      <c r="L11" s="31"/>
+      <c r="L11" s="37"/>
       <c r="M11" s="22" t="s">
         <v>99</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -1350,17 +1348,17 @@
       <c r="G12" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="25" t="s">
         <v>103</v>
       </c>
       <c r="I12" s="21" t="s">
         <v>102</v>
       </c>
       <c r="J12" s="20"/>
-      <c r="K12" s="30" t="s">
-        <v>108</v>
+      <c r="K12" s="36" t="s">
+        <v>107</v>
       </c>
-      <c r="L12" s="31"/>
+      <c r="L12" s="37"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
@@ -1396,17 +1394,17 @@
       <c r="G13" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="26" t="s">
         <v>82</v>
       </c>
       <c r="J13" s="20"/>
-      <c r="K13" s="30" t="s">
+      <c r="K13" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="L13" s="31"/>
+      <c r="L13" s="37"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
@@ -1442,15 +1440,15 @@
       <c r="G14" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="26" t="s">
         <v>82</v>
       </c>
       <c r="J14" s="20"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="31"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="37"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
@@ -1486,15 +1484,15 @@
       <c r="G15" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="26" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="20"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="31"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="37"/>
       <c r="M15" s="24"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
@@ -1530,7 +1528,7 @@
       <c r="G16" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="25" t="s">
         <v>103</v>
       </c>
       <c r="I16" s="21" t="s">
@@ -1539,10 +1537,10 @@
       <c r="J16" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="30" t="s">
-        <v>108</v>
+      <c r="K16" s="36" t="s">
+        <v>107</v>
       </c>
-      <c r="L16" s="31"/>
+      <c r="L16" s="37"/>
       <c r="M16" s="24"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
@@ -1578,7 +1576,7 @@
       <c r="G17" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="25" t="s">
         <v>103</v>
       </c>
       <c r="I17" s="21" t="s">
@@ -1587,10 +1585,10 @@
       <c r="J17" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="K17" s="30" t="s">
-        <v>108</v>
+      <c r="K17" s="36" t="s">
+        <v>107</v>
       </c>
-      <c r="L17" s="31"/>
+      <c r="L17" s="37"/>
       <c r="M17" s="24"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
@@ -1626,7 +1624,7 @@
       <c r="G18" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="25" t="s">
         <v>103</v>
       </c>
       <c r="I18" s="21" t="s">
@@ -1635,8 +1633,8 @@
       <c r="J18" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="32"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="38"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
@@ -1672,7 +1670,7 @@
       <c r="G19" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="25" t="s">
         <v>103</v>
       </c>
       <c r="I19" s="21" t="s">
@@ -1681,8 +1679,8 @@
       <c r="J19" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="32"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="38"/>
       <c r="M19" s="24"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
@@ -1718,15 +1716,15 @@
       <c r="G20" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="I20" s="37" t="s">
+      <c r="I20" s="26" t="s">
         <v>82</v>
       </c>
       <c r="J20" s="20"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="32"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="38"/>
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
@@ -1754,7 +1752,7 @@
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>63</v>
@@ -1762,17 +1760,17 @@
       <c r="G21" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="25" t="s">
         <v>103</v>
       </c>
       <c r="I21" s="21" t="s">
         <v>65</v>
       </c>
       <c r="J21" s="20"/>
-      <c r="K21" s="30" t="s">
+      <c r="K21" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="L21" s="31"/>
+      <c r="L21" s="37"/>
       <c r="M21" s="24"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
@@ -1800,7 +1798,7 @@
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>63</v>
@@ -1808,17 +1806,17 @@
       <c r="G22" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="36" t="s">
+      <c r="H22" s="25" t="s">
         <v>103</v>
       </c>
       <c r="I22" s="21" t="s">
         <v>65</v>
       </c>
       <c r="J22" s="20"/>
-      <c r="K22" s="30" t="s">
+      <c r="K22" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="L22" s="30"/>
+      <c r="L22" s="36"/>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
@@ -1837,20 +1835,20 @@
       <c r="AB22" s="24"/>
     </row>
     <row r="23" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="26"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="28"/>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
@@ -1886,15 +1884,15 @@
       <c r="G24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="36" t="s">
+      <c r="H24" s="25" t="s">
         <v>103</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>82</v>
       </c>
       <c r="J24" s="12"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="26"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="28"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
@@ -1930,17 +1928,17 @@
       <c r="G25" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="H25" s="36" t="s">
+      <c r="H25" s="25" t="s">
         <v>103</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>65</v>
       </c>
       <c r="J25" s="12"/>
-      <c r="K25" s="28" t="s">
+      <c r="K25" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="L25" s="26"/>
+      <c r="L25" s="28"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
@@ -31644,6 +31642,23 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
@@ -31657,23 +31672,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="H32:H35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -31729,11 +31727,11 @@
       <c r="I1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="26"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -31752,24 +31750,24 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="26"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="28"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -31814,10 +31812,10 @@
       <c r="J3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="26"/>
+      <c r="L3" s="28"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -31836,20 +31834,20 @@
       <c r="AB3" s="3"/>
     </row>
     <row r="4" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="26"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="28"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -31892,10 +31890,10 @@
         <v>91</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="L5" s="26"/>
+      <c r="L5" s="28"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -31982,8 +31980,8 @@
         <v>82</v>
       </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="26"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -32026,8 +32024,8 @@
         <v>82</v>
       </c>
       <c r="J8" s="7"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="26"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -32070,8 +32068,8 @@
         <v>82</v>
       </c>
       <c r="J9" s="7"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="26"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -32114,10 +32112,10 @@
         <v>65</v>
       </c>
       <c r="J10" s="7"/>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="L10" s="26"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -32162,10 +32160,10 @@
       <c r="J11" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="L11" s="31"/>
+      <c r="L11" s="37"/>
       <c r="M11" s="19" t="s">
         <v>99</v>
       </c>
@@ -32214,10 +32212,10 @@
       <c r="J12" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="31"/>
+      <c r="L12" s="37"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
@@ -32260,10 +32258,10 @@
         <v>65</v>
       </c>
       <c r="J13" s="20"/>
-      <c r="K13" s="30" t="s">
+      <c r="K13" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="L13" s="31"/>
+      <c r="L13" s="37"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
@@ -32306,10 +32304,10 @@
         <v>65</v>
       </c>
       <c r="J14" s="20"/>
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="L14" s="31"/>
+      <c r="L14" s="37"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
@@ -32352,8 +32350,8 @@
         <v>65</v>
       </c>
       <c r="J15" s="20"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="31"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="37"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
@@ -32396,10 +32394,10 @@
         <v>65</v>
       </c>
       <c r="J16" s="20"/>
-      <c r="K16" s="30" t="s">
+      <c r="K16" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="L16" s="31"/>
+      <c r="L16" s="37"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
@@ -32444,10 +32442,10 @@
       <c r="J17" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="30" t="s">
+      <c r="K17" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="31"/>
+      <c r="L17" s="37"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
@@ -32492,10 +32490,10 @@
       <c r="J18" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="30" t="s">
+      <c r="K18" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="32"/>
+      <c r="L18" s="38"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
@@ -32540,10 +32538,10 @@
       <c r="J19" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="30" t="s">
+      <c r="K19" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="L19" s="32"/>
+      <c r="L19" s="38"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
@@ -32588,10 +32586,10 @@
       <c r="J20" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K20" s="30" t="s">
+      <c r="K20" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="L20" s="32"/>
+      <c r="L20" s="38"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
@@ -32636,10 +32634,10 @@
       <c r="J21" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="30" t="s">
+      <c r="K21" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="L21" s="31"/>
+      <c r="L21" s="37"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
@@ -32684,10 +32682,10 @@
       <c r="J22" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K22" s="30" t="s">
+      <c r="K22" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="L22" s="30"/>
+      <c r="L22" s="36"/>
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
@@ -32706,20 +32704,20 @@
       <c r="AB22" s="18"/>
     </row>
     <row r="23" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="26"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="28"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -32762,8 +32760,8 @@
         <v>82</v>
       </c>
       <c r="J24" s="7"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="26"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="28"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -32808,10 +32806,10 @@
       <c r="J25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K25" s="28" t="s">
+      <c r="K25" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="L25" s="26"/>
+      <c r="L25" s="28"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -62515,20 +62513,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
     <mergeCell ref="H32:H35"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="I1:J1"/>
@@ -62545,6 +62529,20 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="A23:G23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/Test Design Specifications/Search_Users_Test_Design_Specifications .xlsx
+++ b/Test Design Specifications/Search_Users_Test_Design_Specifications .xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Retesting" sheetId="2" r:id="rId1"/>
+    <sheet name="Retesting_11_09" sheetId="2" r:id="rId1"/>
     <sheet name="Testing" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="107">
   <si>
     <t xml:space="preserve"> Test Design Specification Identifier</t>
   </si>
@@ -334,35 +334,26 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>fail bc of name</t>
-  </si>
-  <si>
     <t>retested</t>
   </si>
   <si>
-    <t xml:space="preserve">name ignored </t>
+    <t>Negative</t>
   </si>
   <si>
-    <t>city ignored</t>
+    <t>The page loads the users registered with matching e-mail part and a button "Редактирай" under it.</t>
   </si>
   <si>
-    <t xml:space="preserve">fail </t>
+    <t>The page loads the users registered with matching e-mail part  AND city and a button "Редактирай" under it</t>
   </si>
   <si>
-    <t>if name == last name (or part of it)</t>
-  </si>
-  <si>
-    <t>no match-no results</t>
-  </si>
-  <si>
-    <t>Negative</t>
+    <t>The page loads the users registered with matching e-mail part  AND address (or address part) and a button "Редактирай" under it</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -415,11 +406,18 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -431,8 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -445,10 +442,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -512,16 +510,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -529,18 +530,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -548,8 +551,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -831,7 +842,7 @@
   <dimension ref="A1:AB1014"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -873,14 +884,14 @@
       <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="28"/>
+      <c r="L1" s="33"/>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
@@ -899,24 +910,24 @@
       <c r="AB1" s="13"/>
     </row>
     <row r="2" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="28"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="33"/>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
@@ -953,7 +964,7 @@
         <v>51</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>82</v>
@@ -961,8 +972,8 @@
       <c r="J3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="33"/>
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -981,20 +992,20 @@
       <c r="AB3" s="16"/>
     </row>
     <row r="4" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="12"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="28"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="33"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
@@ -1031,16 +1042,16 @@
         <v>19</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>82</v>
+      <c r="I5" s="27" t="s">
+        <v>65</v>
       </c>
       <c r="J5" s="12"/>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="L5" s="28"/>
+      <c r="L5" s="29"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
@@ -1077,14 +1088,14 @@
         <v>70</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>82</v>
       </c>
       <c r="J6" s="12"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="44"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -1102,7 +1113,7 @@
       <c r="AA6" s="16"/>
       <c r="AB6" s="16"/>
     </row>
-    <row r="7" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>21</v>
       </c>
@@ -1121,14 +1132,14 @@
         <v>71</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>82</v>
       </c>
       <c r="J7" s="12"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="28"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
@@ -1165,14 +1176,14 @@
         <v>72</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>82</v>
       </c>
       <c r="J8" s="12"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="28"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="44"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
@@ -1206,17 +1217,17 @@
         <v>63</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>82</v>
       </c>
       <c r="J9" s="12"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="28"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="44"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
@@ -1252,17 +1263,15 @@
       <c r="G10" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" s="8" t="s">
+      <c r="H10" s="20" t="s">
         <v>102</v>
       </c>
+      <c r="I10" s="10" t="s">
+        <v>82</v>
+      </c>
       <c r="J10" s="12"/>
-      <c r="K10" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="L10" s="28"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="44"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -1298,23 +1307,17 @@
       <c r="G11" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>103</v>
+      <c r="H11" s="20" t="s">
+        <v>102</v>
       </c>
-      <c r="I11" s="21" t="s">
-        <v>65</v>
+      <c r="I11" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="J11" s="20"/>
-      <c r="K11" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="L11" s="37"/>
-      <c r="M11" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>108</v>
-      </c>
+      <c r="K11" s="43"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
       <c r="Q11" s="24"/>
@@ -1348,17 +1351,15 @@
       <c r="G12" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" s="21" t="s">
+      <c r="H12" s="20" t="s">
         <v>102</v>
       </c>
+      <c r="I12" s="25" t="s">
+        <v>82</v>
+      </c>
       <c r="J12" s="20"/>
-      <c r="K12" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="L12" s="37"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="44"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
@@ -1394,17 +1395,15 @@
       <c r="G13" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="25" t="s">
-        <v>103</v>
+      <c r="H13" s="20" t="s">
+        <v>102</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="25" t="s">
         <v>82</v>
       </c>
       <c r="J13" s="20"/>
-      <c r="K13" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="37"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
@@ -1438,17 +1437,17 @@
         <v>63</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
-      <c r="H14" s="25" t="s">
-        <v>103</v>
+      <c r="H14" s="20" t="s">
+        <v>102</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="25" t="s">
         <v>82</v>
       </c>
       <c r="J14" s="20"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="37"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="44"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
@@ -1482,17 +1481,17 @@
         <v>63</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
-      <c r="H15" s="25" t="s">
-        <v>103</v>
+      <c r="H15" s="20" t="s">
+        <v>102</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="25" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="20"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="37"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="44"/>
       <c r="M15" s="24"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
@@ -1528,19 +1527,15 @@
       <c r="G16" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" s="21" t="s">
+      <c r="H16" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J16" s="20" t="s">
-        <v>104</v>
+      <c r="I16" s="25" t="s">
+        <v>82</v>
       </c>
-      <c r="K16" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="L16" s="37"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="44"/>
       <c r="M16" s="24"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
@@ -1576,19 +1571,15 @@
       <c r="G17" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="25" t="s">
-        <v>103</v>
+      <c r="H17" s="20" t="s">
+        <v>102</v>
       </c>
-      <c r="I17" s="21" t="s">
-        <v>106</v>
+      <c r="I17" s="25" t="s">
+        <v>82</v>
       </c>
-      <c r="J17" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="K17" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="L17" s="37"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="44"/>
       <c r="M17" s="24"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
@@ -1624,17 +1615,15 @@
       <c r="G18" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="25" t="s">
-        <v>103</v>
+      <c r="H18" s="20" t="s">
+        <v>102</v>
       </c>
-      <c r="I18" s="21" t="s">
-        <v>65</v>
+      <c r="I18" s="25" t="s">
+        <v>82</v>
       </c>
-      <c r="J18" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="K18" s="36"/>
-      <c r="L18" s="38"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
@@ -1670,17 +1659,15 @@
       <c r="G19" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="25" t="s">
-        <v>103</v>
+      <c r="H19" s="20" t="s">
+        <v>102</v>
       </c>
-      <c r="I19" s="21" t="s">
-        <v>65</v>
+      <c r="I19" s="25" t="s">
+        <v>82</v>
       </c>
-      <c r="J19" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="38"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
       <c r="M19" s="24"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
@@ -1716,15 +1703,15 @@
       <c r="G20" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="25" t="s">
-        <v>103</v>
+      <c r="H20" s="20" t="s">
+        <v>102</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="25" t="s">
         <v>82</v>
       </c>
       <c r="J20" s="20"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="38"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
@@ -1752,7 +1739,7 @@
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>63</v>
@@ -1760,17 +1747,15 @@
       <c r="G21" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="25" t="s">
-        <v>103</v>
+      <c r="H21" s="20" t="s">
+        <v>102</v>
       </c>
-      <c r="I21" s="21" t="s">
-        <v>65</v>
+      <c r="I21" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="J21" s="20"/>
-      <c r="K21" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="L21" s="37"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="44"/>
       <c r="M21" s="24"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
@@ -1798,7 +1783,7 @@
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>63</v>
@@ -1806,17 +1791,15 @@
       <c r="G22" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="25" t="s">
-        <v>103</v>
+      <c r="H22" s="20" t="s">
+        <v>102</v>
       </c>
-      <c r="I22" s="21" t="s">
-        <v>65</v>
+      <c r="I22" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="J22" s="20"/>
-      <c r="K22" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="L22" s="36"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
@@ -1835,20 +1818,20 @@
       <c r="AB22" s="24"/>
     </row>
     <row r="23" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="28"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="40"/>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
@@ -1884,15 +1867,15 @@
       <c r="G24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="25" t="s">
-        <v>103</v>
+      <c r="H24" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>82</v>
       </c>
       <c r="J24" s="12"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="28"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="40"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
@@ -1928,17 +1911,15 @@
       <c r="G25" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="H25" s="25" t="s">
-        <v>103</v>
+      <c r="H25" s="20" t="s">
+        <v>102</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>65</v>
+      <c r="I25" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="J25" s="12"/>
-      <c r="K25" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="L25" s="28"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="40"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
@@ -1981,8 +1962,8 @@
         <v>82</v>
       </c>
       <c r="J26" s="12"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
@@ -2011,8 +1992,8 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
@@ -2041,8 +2022,8 @@
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
@@ -2071,8 +2052,8 @@
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
@@ -2101,8 +2082,8 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
@@ -2131,8 +2112,8 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
@@ -2158,11 +2139,11 @@
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="30"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16"/>
@@ -2188,11 +2169,11 @@
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
-      <c r="H33" s="29"/>
+      <c r="H33" s="30"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
@@ -2218,7 +2199,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="29"/>
+      <c r="H34" s="30"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="16"/>
@@ -2248,7 +2229,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
-      <c r="H35" s="29"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="16"/>
@@ -31724,14 +31705,14 @@
       <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="28"/>
+      <c r="L1" s="33"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -31750,24 +31731,24 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="28"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="33"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -31812,10 +31793,10 @@
       <c r="J3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="28"/>
+      <c r="L3" s="33"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -31834,20 +31815,20 @@
       <c r="AB3" s="3"/>
     </row>
     <row r="4" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="28"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="33"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -31890,10 +31871,10 @@
         <v>91</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="L5" s="28"/>
+      <c r="L5" s="33"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -31936,8 +31917,8 @@
         <v>82</v>
       </c>
       <c r="J6" s="7"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -31980,8 +31961,8 @@
         <v>82</v>
       </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="28"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="33"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -32024,8 +32005,8 @@
         <v>82</v>
       </c>
       <c r="J8" s="7"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="28"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="33"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -32068,8 +32049,8 @@
         <v>82</v>
       </c>
       <c r="J9" s="7"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="28"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="33"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -32112,10 +32093,10 @@
         <v>65</v>
       </c>
       <c r="J10" s="7"/>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="L10" s="28"/>
+      <c r="L10" s="33"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -32160,10 +32141,10 @@
       <c r="J11" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="L11" s="37"/>
+      <c r="L11" s="40"/>
       <c r="M11" s="19" t="s">
         <v>99</v>
       </c>
@@ -32212,10 +32193,10 @@
       <c r="J12" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="37"/>
+      <c r="L12" s="40"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
@@ -32258,10 +32239,10 @@
         <v>65</v>
       </c>
       <c r="J13" s="20"/>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="L13" s="37"/>
+      <c r="L13" s="40"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
@@ -32304,10 +32285,10 @@
         <v>65</v>
       </c>
       <c r="J14" s="20"/>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="L14" s="37"/>
+      <c r="L14" s="40"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
@@ -32350,8 +32331,8 @@
         <v>65</v>
       </c>
       <c r="J15" s="20"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="37"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="40"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
@@ -32394,10 +32375,10 @@
         <v>65</v>
       </c>
       <c r="J16" s="20"/>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="L16" s="37"/>
+      <c r="L16" s="40"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
@@ -32442,10 +32423,10 @@
       <c r="J17" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="37"/>
+      <c r="L17" s="40"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
@@ -32490,10 +32471,10 @@
       <c r="J18" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="36" t="s">
+      <c r="K18" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="38"/>
+      <c r="L18" s="41"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
@@ -32538,10 +32519,10 @@
       <c r="J19" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="36" t="s">
+      <c r="K19" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="L19" s="38"/>
+      <c r="L19" s="41"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
@@ -32586,10 +32567,10 @@
       <c r="J20" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K20" s="36" t="s">
+      <c r="K20" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="L20" s="38"/>
+      <c r="L20" s="41"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
@@ -32634,10 +32615,10 @@
       <c r="J21" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="36" t="s">
+      <c r="K21" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="L21" s="37"/>
+      <c r="L21" s="40"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
@@ -32682,10 +32663,10 @@
       <c r="J22" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="L22" s="36"/>
+      <c r="L22" s="39"/>
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
@@ -32704,20 +32685,20 @@
       <c r="AB22" s="18"/>
     </row>
     <row r="23" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="28"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="33"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -32760,8 +32741,8 @@
         <v>82</v>
       </c>
       <c r="J24" s="7"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="28"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="33"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -32806,10 +32787,10 @@
       <c r="J25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="L25" s="28"/>
+      <c r="L25" s="33"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -33029,7 +33010,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="30"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="3"/>
@@ -33059,7 +33040,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="29"/>
+      <c r="H33" s="30"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="3"/>
@@ -33089,7 +33070,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="29"/>
+      <c r="H34" s="30"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="3"/>
@@ -33119,7 +33100,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="29"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="3"/>

--- a/Test Design Specifications/Search_Users_Test_Design_Specifications .xlsx
+++ b/Test Design Specifications/Search_Users_Test_Design_Specifications .xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="107">
   <si>
     <t xml:space="preserve"> Test Design Specification Identifier</t>
   </si>
@@ -446,7 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -516,23 +516,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -544,20 +548,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -842,15 +835,15 @@
   <dimension ref="A1:AB1014"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="K8" sqref="K8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="14" customWidth="1"/>
     <col min="2" max="2" width="43.7109375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="13" style="14" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="14" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="14" customWidth="1"/>
     <col min="6" max="6" width="49.140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="68.5703125" style="14" customWidth="1"/>
@@ -884,14 +877,14 @@
       <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="33"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
@@ -910,24 +903,24 @@
       <c r="AB1" s="13"/>
     </row>
     <row r="2" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="33"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="28"/>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
@@ -972,8 +965,8 @@
       <c r="J3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="33"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="28"/>
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -992,20 +985,20 @@
       <c r="AB3" s="16"/>
     </row>
     <row r="4" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="10"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="33"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="28"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
@@ -1044,14 +1037,12 @@
       <c r="H5" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="27" t="s">
-        <v>65</v>
+      <c r="I5" s="10" t="s">
+        <v>82</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" s="29"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
@@ -1094,8 +1085,8 @@
         <v>82</v>
       </c>
       <c r="J6" s="12"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="44"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -1138,8 +1129,8 @@
         <v>82</v>
       </c>
       <c r="J7" s="12"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="40"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
@@ -1182,8 +1173,8 @@
         <v>82</v>
       </c>
       <c r="J8" s="12"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="44"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
@@ -1226,8 +1217,8 @@
         <v>82</v>
       </c>
       <c r="J9" s="12"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="44"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
@@ -1270,8 +1261,8 @@
         <v>82</v>
       </c>
       <c r="J10" s="12"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="44"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -1314,8 +1305,8 @@
         <v>82</v>
       </c>
       <c r="J11" s="20"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="44"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
       <c r="O11" s="24"/>
@@ -1358,8 +1349,8 @@
         <v>82</v>
       </c>
       <c r="J12" s="20"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="44"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="34"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
@@ -1402,8 +1393,8 @@
         <v>82</v>
       </c>
       <c r="J13" s="20"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="44"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="34"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
@@ -1446,8 +1437,8 @@
         <v>82</v>
       </c>
       <c r="J14" s="20"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="44"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
@@ -1490,8 +1481,8 @@
         <v>82</v>
       </c>
       <c r="J15" s="20"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="44"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
       <c r="M15" s="24"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
@@ -1534,8 +1525,8 @@
         <v>82</v>
       </c>
       <c r="J16" s="20"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="44"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
       <c r="M16" s="24"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
@@ -1578,8 +1569,8 @@
         <v>82</v>
       </c>
       <c r="J17" s="20"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="44"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
       <c r="M17" s="24"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
@@ -1622,8 +1613,8 @@
         <v>82</v>
       </c>
       <c r="J18" s="20"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
@@ -1666,8 +1657,8 @@
         <v>82</v>
       </c>
       <c r="J19" s="20"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
       <c r="M19" s="24"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
@@ -1710,8 +1701,8 @@
         <v>82</v>
       </c>
       <c r="J20" s="20"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
@@ -1754,8 +1745,8 @@
         <v>82</v>
       </c>
       <c r="J21" s="20"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="44"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="34"/>
       <c r="M21" s="24"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
@@ -1798,8 +1789,8 @@
         <v>82</v>
       </c>
       <c r="J22" s="20"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
@@ -1818,20 +1809,20 @@
       <c r="AB22" s="24"/>
     </row>
     <row r="23" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="12"/>
       <c r="I23" s="10"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="40"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="30"/>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
@@ -1874,8 +1865,8 @@
         <v>82</v>
       </c>
       <c r="J24" s="12"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="40"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="30"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
@@ -1918,8 +1909,8 @@
         <v>82</v>
       </c>
       <c r="J25" s="12"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="40"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="30"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
@@ -2139,7 +2130,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="30"/>
+      <c r="H32" s="32"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="26"/>
@@ -2169,7 +2160,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
-      <c r="H33" s="30"/>
+      <c r="H33" s="32"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="26"/>
@@ -2199,7 +2190,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="30"/>
+      <c r="H34" s="32"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="16"/>
@@ -2229,7 +2220,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
-      <c r="H35" s="30"/>
+      <c r="H35" s="32"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="16"/>
@@ -31623,23 +31614,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
@@ -31653,6 +31627,23 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="H32:H35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -31705,14 +31696,14 @@
       <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="33"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -31731,24 +31722,24 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="33"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="28"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -31793,10 +31784,10 @@
       <c r="J3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="33"/>
+      <c r="L3" s="28"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -31815,20 +31806,20 @@
       <c r="AB3" s="3"/>
     </row>
     <row r="4" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="33"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="28"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -31871,10 +31862,10 @@
         <v>91</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="L5" s="33"/>
+      <c r="L5" s="28"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -31917,8 +31908,8 @@
         <v>82</v>
       </c>
       <c r="J6" s="7"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -31961,8 +31952,8 @@
         <v>82</v>
       </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="33"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="28"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -32005,8 +31996,8 @@
         <v>82</v>
       </c>
       <c r="J8" s="7"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="33"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -32049,8 +32040,8 @@
         <v>82</v>
       </c>
       <c r="J9" s="7"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="33"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -32093,10 +32084,10 @@
         <v>65</v>
       </c>
       <c r="J10" s="7"/>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="L10" s="33"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -32141,10 +32132,10 @@
       <c r="J11" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="L11" s="40"/>
+      <c r="L11" s="30"/>
       <c r="M11" s="19" t="s">
         <v>99</v>
       </c>
@@ -32193,10 +32184,10 @@
       <c r="J12" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="K12" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="40"/>
+      <c r="L12" s="30"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
@@ -32239,10 +32230,10 @@
         <v>65</v>
       </c>
       <c r="J13" s="20"/>
-      <c r="K13" s="39" t="s">
+      <c r="K13" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="L13" s="40"/>
+      <c r="L13" s="30"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
@@ -32285,10 +32276,10 @@
         <v>65</v>
       </c>
       <c r="J14" s="20"/>
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="L14" s="40"/>
+      <c r="L14" s="30"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
@@ -32331,8 +32322,8 @@
         <v>65</v>
       </c>
       <c r="J15" s="20"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="40"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
@@ -32375,10 +32366,10 @@
         <v>65</v>
       </c>
       <c r="J16" s="20"/>
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="L16" s="40"/>
+      <c r="L16" s="30"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
@@ -32423,10 +32414,10 @@
       <c r="J17" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="40"/>
+      <c r="L17" s="30"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
@@ -32471,10 +32462,10 @@
       <c r="J18" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="K18" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="41"/>
+      <c r="L18" s="29"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
@@ -32519,10 +32510,10 @@
       <c r="J19" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="K19" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="L19" s="41"/>
+      <c r="L19" s="29"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
@@ -32567,10 +32558,10 @@
       <c r="J20" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K20" s="39" t="s">
+      <c r="K20" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="L20" s="41"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
@@ -32615,10 +32606,10 @@
       <c r="J21" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="L21" s="40"/>
+      <c r="L21" s="30"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
@@ -32663,10 +32654,10 @@
       <c r="J22" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K22" s="39" t="s">
+      <c r="K22" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="L22" s="39"/>
+      <c r="L22" s="31"/>
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
@@ -32685,20 +32676,20 @@
       <c r="AB22" s="18"/>
     </row>
     <row r="23" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="33"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="28"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -32741,8 +32732,8 @@
         <v>82</v>
       </c>
       <c r="J24" s="7"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="33"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="28"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -32787,10 +32778,10 @@
       <c r="J25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K25" s="36" t="s">
+      <c r="K25" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="L25" s="33"/>
+      <c r="L25" s="28"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -33010,7 +33001,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="30"/>
+      <c r="H32" s="32"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="3"/>
@@ -33040,7 +33031,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="30"/>
+      <c r="H33" s="32"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="3"/>
@@ -33070,7 +33061,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="30"/>
+      <c r="H34" s="32"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="3"/>
@@ -33100,7 +33091,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="30"/>
+      <c r="H35" s="32"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="3"/>
@@ -62494,6 +62485,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="H32:H35"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="I1:J1"/>
@@ -62510,20 +62515,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="A23:G23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
